--- a/src/main/java/com/qa/data/PersonalInfoPageData.xlsx
+++ b/src/main/java/com/qa/data/PersonalInfoPageData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vishw\Desktop\Study Material\Page-object-model-framework\src\main\java\com\qa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B8852F0-AB1A-4A1D-BE81-CE709F191D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD55D94B-D20F-446F-A6B8-90929E44291A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="16608" windowHeight="8832" xr2:uid="{88F28FB4-36B1-4663-873E-0892B1565753}"/>
   </bookViews>
@@ -460,7 +460,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -500,7 +500,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>123456789</v>
+        <v>1289</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -520,7 +520,7 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>515151515</v>
+        <v>51515</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -540,7 +540,7 @@
         <v>8</v>
       </c>
       <c r="D4">
-        <v>9978454848</v>
+        <v>99788</v>
       </c>
       <c r="E4">
         <v>11</v>
@@ -560,7 +560,7 @@
         <v>17</v>
       </c>
       <c r="D5">
-        <v>8488484884</v>
+        <v>84884</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -580,7 +580,7 @@
         <v>19</v>
       </c>
       <c r="D6">
-        <v>654515110</v>
+        <v>65110</v>
       </c>
       <c r="E6">
         <v>8</v>
@@ -600,7 +600,7 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>54488451</v>
+        <v>88451</v>
       </c>
       <c r="E7">
         <v>6</v>
